--- a/N3FULLOPTIONS.xlsx
+++ b/N3FULLOPTIONS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Downloads\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C3878-6F7E-4A43-84A4-4DD0B98786CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E894B-2216-4071-9093-3C57BA0111CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" xr2:uid="{837F86DD-D087-4740-86D8-6099F227768E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="975">
   <si>
     <t>～ てしょうがない</t>
   </si>
@@ -4116,6 +4116,483 @@
 →　Bảo tôi viết giấy giới thiệu mà tôi chẳng biết rõ về người đó thì làm sao mà viết được.
 ③　こんなに酷ひどく病気びょうきになっていては、治なおりようがない。
 →　Bệnh nặng như thế này thì không có cách nào mà chữa khỏi được.</t>
+  </si>
+  <si>
+    <t>～ 最中に／最中だ</t>
+  </si>
+  <si>
+    <t>Đang lúc, Ngay trong lúc, Đúng lúc vào</t>
+  </si>
+  <si>
+    <t>[Vている]  +最中さいちゅうに／最中さいちゅうだ
+[Danh từ] + 最中さいちゅうに／最中さいちゅうだ</t>
+  </si>
+  <si>
+    <t>①　Sử dụng khi muốn nói rằng “đúng vào lúc đang làm gì đó, điều không nghĩ tới đã xảy ra”. Thường được sử dụng ở những tình huống mà khi đó, bạn không muốn bị làm phiền</t>
+  </si>
+  <si>
+    <t>①　食事しょくじの最中さいちゅうに、お客きゃくさんが来きた。
+→　Ngay giữa bữa ăn thì khách tới.
+②　新入社員しんにゅうしゃいんの小林こばやしさんは、会議かいぎの最中さいちゅうに居眠いねむりを始はじめてしまった。
+→　Cậu nhân viên mới vào làm Kobayashi đã bắt đầu ngủ gật ngay đang trong cuộc họp.
+③　面接めんせつの最中さいちゅうにお腹が鳴なってしまった。
+→　Đang lúc phỏng phấn thì bụng tôi kêu lên.</t>
+  </si>
+  <si>
+    <t>～ てからでないと/ てからでなければ</t>
+  </si>
+  <si>
+    <t>Nếu không…thì sẽ…/ nếu chưa…thì sẽ…/ chỉ sau khi…thì mới…</t>
+  </si>
+  <si>
+    <t>[Vてから]  + でないと、～
+[Vてから]  + でなければ、～
+[Vてから]  + でなかったら、～</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng để diễn tả ý “trường hợp nếu không làm A sẽ dẫn đến sự thể B, vì vậy cần phải làm việc A trước”
+②　Thường sự thể phía sau là những sự việc không hay, không mong muốn (đi với thể phủ định của khả năng hoặc miêu tả khó khăn…)</t>
+  </si>
+  <si>
+    <t>①　野菜やさいを生なまで食たべるなら、よく洗あらってからでないと、農薬のうやくが心配しんぱいだ。
+→　Nếu ăn rau sống mà chưa rửa kỹ thì lo lắng về thuốc trừ sâu.
+②　手続てつづきしてからでないと、図書館としょかんの本ほんは借かりられない。
+→　Nếu chưa làm thủ tục thì không thể mượn sách của thư viện được.
+③　この件けんについては、上司じょうしと相談そうだんしてからでないと、決きめられません。
+→　Về việc này, nếu không thảo luận với cấp trên thì tôi không thể quyết định được.</t>
+  </si>
+  <si>
+    <t>～ て以来</t>
+  </si>
+  <si>
+    <t>Kể từ sau khi…</t>
+  </si>
+  <si>
+    <t>[Vて]  + 以来いらい 
+[Danh từ]  + 以来</t>
+  </si>
+  <si>
+    <t>①　Là cách nói biểu thị ý nghĩa “kể từ sau khi (một hành động, sự việc gì đó) thì… (một tình trạng tiếp diễn)
+②　Vế sau là hành động, trạng thái tiếp diễn, đều đặn
+③　Không thể hiện sự việc tính từ quá khứ gần đến hiện tại
+④　Không thể hiện tương lai
+⑤　Là cách nói hầu như tương tự với 「てからは」</t>
+  </si>
+  <si>
+    <t>①　犬いぬを飼かって以来いらい、毎朝まいあさの散歩さんぽが日課にっかになった。
+→　Kể từ sau khi nuôi chó thì đi bộ buổi sáng đã trở thành việc hàng ngày của tôi.
+②　彼かれに会あったのは、大学だいがくを卒業そつぎょうして以来いらいです。
+→　Tôi gặp anh ấy là kể từ sau khi tốt nghiệp đại học.
+③　引ひっ越こして以来いらい、まだ一度いちども エアコン を使つかっていない。
+→　Kể từ sau khi chuyển nhà tôi vẫn chưa dùng điều hoà lần nào.</t>
+  </si>
+  <si>
+    <t>～ には／とは</t>
+  </si>
+  <si>
+    <t>Để mà…/ Có nghĩa là…</t>
+  </si>
+  <si>
+    <t>[Động từ thể từ điển] + には
+[Động tính từ thể thường/ Danh từ] + とは</t>
+  </si>
+  <si>
+    <t>①　～ とは：Đưa ra định nghĩa, khái niệm. Đây là mẫu tương tự như ～というのは/ っていうのは
+②　～ には：Trong ngữ pháp N4, chúng ta đã học cấu truc 「には：Đối với..」. Ở cấp độ N3, には  Được dùng để diễn tả mục tiêu, mục đích nào đó, theo sau là lời giải thích hay các bước cần thiết để đạt mục tiêu đó. Thường được dịch là Để mà…</t>
+  </si>
+  <si>
+    <t>Cấu trúc 1: には
+①　日本語にほんごが上手じょうずになるには、どうしたらいいですか。
+→　Phải làm gì để giỏi tiếng Nhật?
+②　コンサート に行いくには、バス が便利べんりです。
+→　Để đi đến buổi hòa nhạc thì xe buýt là tiện nhất.
+③東京とうきょうで暮くらすには、一ヶ月いっかげつ最低さいてい１０万円まんえんが必要ひつようです。
+→　Để có thể sống ở Tokyo thì mỗi tháng cần ít nhất 10 vạn yen.
+Cấu trúc 2: とは
+①　デジカメ とは、デジタルカメラ ということだ。
+→　Dejikame có nghĩa là digital camera (máy ảnh kĩ thuật số).
+②　「ひそひそ話はなすとは / って（いうのは）、どんな話はなし方かた?」/ 「他ほかの人ひとに聞きこえないように小ちいさい声こえで話はなすことだよ」
+→　”Nói thầm” nghĩa là kiểu nói như thế nào? / Là kiểu nói với giọng thật nhỏ để cho người khác không nghe thấy.
+③　顔かおが広ひろいとは、いろいろな分野ぶんやに友ともだちがたくさんいるという意味いみです。
+→　”Quan hệ rộng” có nghĩa là có nhiều bạn bè thuộc nhiều lĩnh vực khác nhau.</t>
+  </si>
+  <si>
+    <t>～ ばかりだ</t>
+  </si>
+  <si>
+    <t>Ngày càng…/ Cứ ngày càng…/ Cứ dần…/ Không ngừng…</t>
+  </si>
+  <si>
+    <t>①　Dùng để diễn tả sự vật/hiện tượng tiếp tục phát triển theo chiều hướng nào đó (tăng lên, xấu đi). Có thể cho cả hiện tượng tích cực và tiêu cực nhưng được sử dụng nhiều hơn cho hiện tượng tiêu cực, ngày càng xấu đi.
+②　Đi sau động từ chỉ sự chuyển đổi (なる／～ていく／上あがる／下さがる…)</t>
+  </si>
+  <si>
+    <t>Động từ thể từ điển （Ｖる） +　ばかりだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①　年としを とると、記憶力きおくりょくは衰おとろえるばかりだ。
+→　Càng nhiều tuổi trí nhớ càng trở nên sa sút, yếu đi.
+②　この数年すうねん、性格せいかくは苦くるしくなるばかりだ。
+→　Mấy năm nay, cuộc sống ngày càng trở nên khó khăn.
+③　このままではナムの日本語にほんごの成績せいせきは下さがるばかりだ。なんとかしなくてはならない。
+→　Cứ thế này thì kết quả tiếng Nhật của Nam ngày càng tệ. Phải làm gì điều gì đó.
+ </t>
+  </si>
+  <si>
+    <t>Chỉ còn… (làm V là xong)</t>
+  </si>
+  <si>
+    <t>①　Thường đi với hình thức ｢Ｖるばかりだ｣、｢Ｖるばかりになっている｣, dùng để diễn đạt ý“đã ở trạng thái lúc sẵn sàng chuyển sang hành động tiếp theo”, hoặc “đã xong mọi việc, chỉ còn làm V nữa là xong”
+②　Cũng thường đi với các từ ｢もう／あと｣ với dạng ｢もう～ばかり｣｢あと～ばかり｣</t>
+  </si>
+  <si>
+    <t>①　荷物にもつもみんな用意よういして、すぐに出でかけるばかりにしてあった。
+→　Tôi đã chuẩn bị xong hành lý, chỉ còn chờ lên đường.
+②　部品ぶひんも全部ぜんぶそろって後あとは組くみ立たてるばかりという時ときになって、説明書せつめいしょがないことに気きがついた。
+→　Đến khi phụ tùng, chi tiết đã đủ, chỉ còn chờ lắp ráp thì tôi mới nhận ra là thiếu sách hướng dẫn.
+③　料理りょうりもできた。ビールも冷ひえている。後あとは、お客きゃくの到着とうちゃくを待まつばかりだ。
+→　Đồ ăn sáng đã nấu xong. Bia cũng đã ướp lạnh. Chỉ còn chờ khách tới là xong.</t>
+  </si>
+  <si>
+    <t>～ 一方で/ 一方だ</t>
+  </si>
+  <si>
+    <t>[Vる]  + 一方いっぽうで/ 一方いっぽうだ
+[Danh từ] + の + 一方いっぽうで/ 一方いっぽうだ</t>
+  </si>
+  <si>
+    <t>Ngày càng…</t>
+  </si>
+  <si>
+    <t>①　Là cách nói Diễn tả xu hướng, sự thay đổi ngày càng tiếp diễn, tình trạng cứ ngày càng tiến triển không ngừng theo một chiều hướng nhất định nào đó. Thường sử dụng cho những tình huống không tốt
+②　Mẫu câu này thường dùng với những động từ chỉ sự thay đổi:　減る、増える、良くなる、悪くなる v.v</t>
+  </si>
+  <si>
+    <t>①　最近さいきんパソコン通信つうしんの利用者りようしゃは増ふえる一方いっぽうだ。
+→　Gần đây người dùng máy tính để trao đổi thông tin ngày càng tăng lên.
+② この街まちも若わんかい人ひとが減へって、お年寄としよりばかりになったね。
+－ うん、お店みせも減へる一方いっぽうだし、この先さきどうなるんだろうね。
+→　Thị trấn này người trẻ thì giảm, giờ còn toàn là người già.
+ー Ừ, số lượng cửa hàng cũng ngày càng giảm, sau này không biết sẽ thành thế nào đây?
+③　都市としの環境かんきょうは悪わるくなる一方いっぽうなのに、若者わかものは都市としにあこがれる。
+→　Dù môi trường đô thị ngày càng xấu đi, nhưng giới trẻ vẫn mơ ước cuộc sống đô hội.</t>
+  </si>
+  <si>
+    <t>～ よりほかはない/ よりほかない/ よりほかしかたがない</t>
+  </si>
+  <si>
+    <t>Chỉ còn cách…</t>
+  </si>
+  <si>
+    <t>[Vる]  + ほかない
+[Vる]  + よりほかない
+[Vる]  + (より) ほかはない
+[Vる]  + (より) ほかしかたがない</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng để biểu thị ý nghĩa “mặc dù không muốn/không thích, nhưng ngoài ra không còn cách nào hơn nên đành phải…”
+②　Trong văn nói thường sử dụng「しかない」
+③　Ngoài ra, còn một số cách nói tương tự như:「～ほかすべがない」「～しか手がない」</t>
+  </si>
+  <si>
+    <t>①　誰だれにも頼たのめないから、自分じぶんでやるほかはない。
+→　Vì không thể nhờ ai nên không còn cách nào hơn là phải tự làm.
+②　誰だれも代かわりに行おこなってくれる人ひとがないので、自分じぶんで行いくほかはない。
+→　Không có ai đi thay, nên tôi không còn cách nào hơn là phải tự đi.
+③　財布さいふもカードも忘わすれたので、駅えきの事務所じむしょでお金かねを借かりるほかなかった。
+→　Vì quên mang cả ví lẫn thẻ nên tôi đã không còn cách nào hơn là mượn tiền ở văn phòng nhà ga.</t>
+  </si>
+  <si>
+    <t>～ をもとに</t>
+  </si>
+  <si>
+    <t>Dựa trên – Căn cứ trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Danh từ]  + をもとに、～
+[Danh từ]  + をもとにして、～
+[Danh từ 1]  + をもとにした + [Danh từ 2] </t>
+  </si>
+  <si>
+    <t>①　Là cách nói biểu thị ý nghĩa “lấy một sự việc nào đó là căn cứ, hoặc lấy nguồn tư liệu, sự gợi ý, câu chuyện nào đó làm cơ sở”. Phía sau thường đi với những động từ như「書かく・話はなす・作つくる・創作そうさくする」v.v.​​​​​​​
+③　Khi bổ nghĩa cho danh từ (đi sau nó) thì sẽ đi với hình thức「NをもとにしたN」
+④　Ý nghĩa gần giống với「に基もとづいて」nhưng 「をもとに（して）」thường đi cùng những cơ cở – căn cứ mang tính cụ thể (dùng làm nguyên liệu, đầu vào để tạo ra một cái gì đó), ít đi với những cơ cở – căn cứ mang tính tinh thần, trừu tượng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①　実際じっさいにあった 話はなしをもとにして 脚本きゃくほんを 書かいた。
+→　Tôi viết kịch bản dựa trên một chuyện đã xảy ra trong thực tế.
+②　ひらがなとかたかなは 漢字かんじをもとにして 生うまれたものである。
+→　Hiragana và Katakana được hình thành từ Kanji.
+③　人ひとのうわさだけをもとにして 人ひとを 判断はんだんするのは 良よくない。
+→　Chỉ dựa trên lời bàn tán của người khác mà đánh giá về một người là không tốt.
+ </t>
+  </si>
+  <si>
+    <t>～ に基づいて/ に基づき</t>
+  </si>
+  <si>
+    <t>Dựa trên, dựa vào…</t>
+  </si>
+  <si>
+    <t>[Danh từ]  + に基もとづいて／に基もとづき／に基もとづく／に基もとづいた</t>
+  </si>
+  <si>
+    <t>①　Dựa theo dữ liệu, cơ sở rõ ràng để làm điều gì đó. Sử dụng khi nói cái gì đó được dùng làm tiêu chuẩn/cơ sở hoặc căn cứ để tham khảo, nhằm thực hiện một việc gì đó
+②　Đây là cách nói mang tính văn viết.
+③　｢～に基づき、～｣là cách nói kiểu cách, trang trọng, mang tính văn viết.
+④　Danh từ đi trước thường là những danh từ mang ý nghĩa như: 資料しりょう、考かんがえ、意見いけん、法律ほうりつ、計画けいかく、事実じじつなど v.v</t>
+  </si>
+  <si>
+    <t>①　集あつめた資料しりょうに基もとづいて、論文ろんぶんを書かいた。
+→　Tôi đã việt luận văn dựa trên những tài liệu đã thu thập được.
+②　実際じっさいにあった話はなしに基もとづいて小説しょうせつを書かいた。
+→　Tôi đã viết tiểu thuyết dựa trên những chuyện đã xảy ra trong thực tế.
+③　区域内くいきないの道路建設どうろけんせつは法律ほうりつに基もとづいて、各市町村かくしちょうそんが基本計画きほんけいかくを作成さくせいした。
+→　Việc xây dựng đường bên trong khu vực đã được chính quyền địa phương các cấp đã lập kế hoạch cơ bản dựa theo luật pháp.</t>
+  </si>
+  <si>
+    <t>～ はもとより</t>
+  </si>
+  <si>
+    <t>Thì là đương nhiên, tất nhiên rồi – thì đã đành…</t>
+  </si>
+  <si>
+    <t>[Danh từ]  + はもとより</t>
+  </si>
+  <si>
+    <t>①　Mẫu câu dùng để bổ sung thêm ý cho chủ đề được nhắc đến trong danh từ đứng đằng trước, hàm ý “không chỉ như thế, mà còn có những chuyện/những cái hơn thế nữa”
+②　Cách dùng và ý nghĩa của「～はもとより」tương đương với 「～はもちろん」nhưng 「～はもとより」mang tính văn viết, trang trọng hơn so với「～はもちろん」</t>
+  </si>
+  <si>
+    <t>①　この店みせは、味あじはもとより、店みせからの眺ながめも最高さいこうです。
+→　Quán ăn này, mùi vị món ăn thì là tất nhiên rồi, mà khung cảnh từ quán nhìn ra cũng rất tuyệt vời. 
+(ngoài mùi vị món ăn ra thì khung cảnh từ quán nhìn ra cũng rất tuyệt vời)
+②　一年いちねんの入院にゅういんということで、本人ほんにんはもとより、家族かぞくも大変たいへんだったようです。
+→　Suốt một năm trời nằm viện, bản thân người bệnh khổ sở thì đã đành, mà cả gia đình cũng vất vả.
+③　今回こんかいの優勝ゆうしょうは、監督かんとくはもとより、応援おうえんしてくれた人ひとたちのおかげです。
+→　Chiến thắng lần này ngoài công của huấn luyện viên còn là nhờ vào sự cổ vũ ủng hộ của mọi người.</t>
+  </si>
+  <si>
+    <t>～ ものだから／もので</t>
+  </si>
+  <si>
+    <t>Vì, Tại vì…</t>
+  </si>
+  <si>
+    <t>Động từ thể thường + ものですから／だから／もので
+Tính từ đuôi い + ものですから／だから／もので
+Tính từ đuôi な/Danh từ + な　+　ものですから／だから／もので</t>
+  </si>
+  <si>
+    <t>①　Mẫu câu này dùng để giải thích nguyên nhân, lý do hoặc biện minh cho một kết quả, hành động nào đó, thường là trong hoàn cảnh không thể tránh khỏi
+②　[～ものですから] mang ý nghĩa tương tự với [～から] và [～ので] nhưng chỉ dùng để giải thích cho hành vi nên phía sau ～ものですから không thể đi với dạng ý chí, mệnh lệnh, cấm đoán
+③　Trong văn nói đôi khi được nói thành [～もんで]　[～もんだから]</t>
+  </si>
+  <si>
+    <t>①　英語えいごが苦手にがてなものだから、スチュワーデス になれなかった。
+→　Vì tiếng anh kém nên tôi đã không thể trở thành tiếp viên hàng không.
+②　父ちちが病気びょうきなものですから、わたしが変かわりにうかがいました。　
+→　Vì bố tôi bị ốm nên tôi đã đến thăm hỏi thay.
+③ 先生せんせい：どうして遅刻ちこくしたんですか。
+学生がくせい：目覚めざまし時計どけいが壊れていたものですから。
+– Giáo viên: Tại sao em đến trễ?
+– Sinh viên: Tại vì đồng hồ báo thức của em bị hỏng.</t>
+  </si>
+  <si>
+    <t>～ ものか／もんか／ものですか</t>
+  </si>
+  <si>
+    <t>Động từ thể thường + ものか／もんか／ものですか
+Tính từ đuôi い + ものか／もんか／ものですか
+Tính từ đuôi な/Danh từ + な　+　ものか／もんか／ものですか</t>
+  </si>
+  <si>
+    <t>Không đời nào…, nhất định không.., không…đâu</t>
+  </si>
+  <si>
+    <t>①　Mẫu câu dùng trong hội thoại, thể hiện sự phủ định mạnh mẽ của người nói về vấn đề gì đó “tuyệt đối không phải là…/…là sai”.
+②　Được nói với ngữ điệu hạ thấp xuống, khi muốn nói nhấn mạnh chủ ý người nói, nói với chính mình rằng “nhất định không làm..”
+③　Đây Là cách nói bày tỏ cảm xúc, sử dụng những từ trái ngược (phủ định điều được nói trước đó, hoặc được dự đoán trước đó)
+④　Là cách nói thân mật, suồng sã. Văn nói sử dụng 「もんか」 hoặc「もんですか」
+⑤　｢ものか｣ thông thường được nam sử dụng, còn nữ thì sử dụng hình thức lịch sự hơn là ｢ものですか｣</t>
+  </si>
+  <si>
+    <t>①　こんなにたくさんの仕事しごと、明日あしたまでに終おわるものか。
+→　Nhiều việc thế này thì đến mai nhất định là không xong được.
+②　「山田やまださんはまじめだね」－「まじめなものか。今日きょうも遅刻ちこくしたよ」
+→　”Anh Yamada nghiêm chỉnh nhỉ!” – “Nghiêm chỉnh gì chứ? Hôm nay cũng đi muộn đấy thôi.”
+③　あんな高たかいもの、頼たのまれても買かうもんか。
+→　Đồ đắt thế này có cầu xin tôi cũng không thèm mua.</t>
+  </si>
+  <si>
+    <t>～はずだった</t>
+  </si>
+  <si>
+    <t>Lẽ ra thì… / Theo dự định thì đã phải… / Cứ nghĩ là…</t>
+  </si>
+  <si>
+    <t>Thể thường + はずだった
+Tính từ đuôi na + な + はずだった
+Danh từ + の + はずだった</t>
+  </si>
+  <si>
+    <t>①　Diễn tả ý nghĩa “cứ nghĩ/ cứ tưởng rằng việc này chắc chắn sẽ xảy ra như vậy (nhưng trên thực tế lại ngược lại)” cùng tâm trạng bất ngờ, thất vọng, ân hận,… của người nói. Thường được dùng với những kết nối nghịch để nhấn mạnh thêm ý nghĩa.
+②　Thường được dùng với「はずだったが/のに/けれど」</t>
+  </si>
+  <si>
+    <t>①　彼女かのじょは 7時じに来くるはずだったが、9時じになるまで姿すがたを現あらわさなかった。
+→　Theo dự định thì cô phải đến lúc 7 giờ nhưng đến 9 giờ mà vẫn không thấy bóng dáng cô ấy đâu cả.
+②　私わたしは彼女かのじょに会あうはずだったけれど、彼女かのじょが病気びょうきで中止ちゅうしになりました。
+→　Lẽ ra tôi đã gặp cô ấy, nhưng cô ấy bị ốm nên cuộc hẹn bị hủy.
+③　我々われわれ々は彼女かのじょに事実じじつを話はなすべきはずだったのに。
+→　Chúng ta đáng nhẽ nên nói với cô ấy sự thật, vậy mà…</t>
+  </si>
+  <si>
+    <t>～ たまらない</t>
+  </si>
+  <si>
+    <t>Không chịu nổi, không chịu được, rất, vô cùng, khôn xiết, chịu không nổi…</t>
+  </si>
+  <si>
+    <t>[Động từ thể て] + たまらない
+[Tính từ -i → くて] + たまらない
+[Tính từ -na/ Danh từ → で] + たまらない
+[Vたい→ たくて] + たまらない</t>
+  </si>
+  <si>
+    <t>①　Diễn tả cảm giác, cảm xúc, mong muốn của người nói ở một mức độ rất cao, hết sức mãnh liệt, không kiềm chế được, không thể chịu đựng được trước sự vật, sự việc, hoàn cảnh, trạng thái nào đó. 
+②　Chú ý: Nếu dùng cho ngôi thứ 3 thì thường dùng kèm “らしい”, “ようだ”, “そうだ” (như ví dụ cuối)</t>
+  </si>
+  <si>
+    <t>①　恋人こいびとができて嬉うれしくてたまらない。
+→　Vui dã man vì (cuối cùng) tôi cũng dã có người yêu.
+②　その ドラマ の続つづきが知しりたくてたまらない。
+→　Hóng phần tiếp của phim này quá đi mất.
+②　寂さびしくてたまらない。
+→　Tôi buồn khôn xiết / Tôi buồn không chịu được.
+③　あのカメラが欲ほしくてたまらない。 
+→　Tôi thèm cái camera đó dễ sợ.</t>
+  </si>
+  <si>
+    <t>～ やら ～ やら</t>
+  </si>
+  <si>
+    <t>Vừa ~ vừa/ Nào là ~ nào là</t>
+  </si>
+  <si>
+    <t>[Động từ thể từ điển] + やら ～ やら
+[Danh từ] + やら ～ やら
+[Tính từ -i] + やら ～ やら</t>
+  </si>
+  <si>
+    <t>①　Là cách nói liệt kê, nêu lên một hoặc hai cái ví dụ trong số nhiều cái. Ý nghĩa tương tự như 「～や～など」「～たり～たりして」.
+②　Thường được sử dụng để miêu tả những việc không thuận lợi, quá nhiều thứ để làm hoặc quá nhiều cái vất vả, khổ sở… hoặc diễn tả có rất nhiều cảm xúc khác nhau</t>
+  </si>
+  <si>
+    <t>①　今日きょうは財布さいふが落おとすやら、部長ぶちょうに怒いかられるやらで、大変たいへんな日ひだった
+→　Hôm nay vừa bị rơi ví, vừa bị sếp nổi giận, đúng là một ngày xui xẻo.
+② A:午後ごご、打うち合あわせできる？
+－ B:今日きょうは会議かいぎやら新人しんじん研究会けんきゅうかいやらがあって無理むり。明日あしたなら、大丈夫だいじょうぶだけど。
+→ A: Chiều nay, cậu sắp xếp được thời gian không? 
+ー B: Hôm nay vừa có cuộc họp, lại vừa có hội thảo nghiên cứu cho nhân viên mới nên mình không thể đi được. Nếu là ngày mai thì vô tư.
+③　12月がつは忘年会ぼうねんかいやら年賀状ねんがじょう書かきやらで忙いそがしい。
+→　Tháng 12 vừa có tiệc tất niên, vừa phải viết thiệp mừng năm mới rất là bận rộn.</t>
+  </si>
+  <si>
+    <t>～ のやら/ものやら</t>
+  </si>
+  <si>
+    <t>Không hiểu là…/ Không biết là…</t>
+  </si>
+  <si>
+    <t>[Động từ thể từ điển] + のやら/ものやら
+[Danh từ/ tính từ đuôi -na] + な + のやら/ものやら
+[Tính từ đuôi い] + のやら/ものやら</t>
+  </si>
+  <si>
+    <t>①　Là cách nói diễn tả phỏng đoán, dự liệu hay sự phân vân không biết là thế này hay là thế kia.</t>
+  </si>
+  <si>
+    <t>①　リ さんは授業じゅぎょうがわかっているのやらいないのやら、無表情むひょうじょうなのでわからない。
+→　Vì không có biểu lộ gì nên không hiểu Li có hiểu bài hay không.
+②　最近さいきんは、男おとこなのやら女おんななやらわからないかっこうの若者わかものがいる。
+→　Gần đây có những thanh niên bộ dạng không rõ là nam hay là nữ nữa.
+③　コート に洗濯物せんたくものの札さつがついている。本人ほんにんに言いっっていいものやら悪わるいものやら。
+→　Thẻ giặt là được gắn lên áo khoác. Không biết khách có thấy phiền hay không.</t>
+  </si>
+  <si>
+    <t>～ てならない</t>
+  </si>
+  <si>
+    <t>Không chịu nổi / hết sức / vô cùng /…ơi là…</t>
+  </si>
+  <si>
+    <t>[Động từ thể て] + ならない
+[Tính từ -i → くて] + ならない
+[Tính từ -na/ Danh từ → で] + ならない
+[Vたい→ たくて] + ならない</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng để diễn tả “trạng thái có một tình cảm, cảm xúc, cảm giác nào đó tự nhiên nảy sinh mà mình không kiểm soát được”. Phần lớn là những trạng thái có muốn cũng không kiểm soát được và cảm xúc không hay, không mong muốn
+②　Khi sử dụng cho ngôi thứ ba thì cuối câu cần thêm ｢～ようだ、～らしい、～のだ｣ v.v.
+③「てならない」Có cách sử dụng cứng hơn 「てたまらない」</t>
+  </si>
+  <si>
+    <t>①　親友しんゆうの結婚式けっこんしきに出席しゅっせきできないのが、残念ざんねんでならない。
+→　Tôi đã không thể tham dự đám cưới người bạn thân được, tiếc ơi là tiếc.
+②　となりの家いえの様子ようすが気きになってならない。
+→　Muốn biết tình hình căn nhà bên cạnh quá đi mất.
+③　この料理りょうりはまずくてならない。
+→　Món này chán không chịu được.
+④　あのコンサートに行いき損そこねたのが今いまでも残念ざんねんでならない。
+→　Tham dự hụt buổi hòa nhạc đó, cho đến bây giờ tôi vẫn tiếc ơi là tiếc.</t>
+  </si>
+  <si>
+    <t>～反面</t>
+  </si>
+  <si>
+    <t>Nhưng mặt khác, ngược lại</t>
+  </si>
+  <si>
+    <t>Thể thường + 反面はんめん、～
+Tính từ đuôi na + な/ である + 反面はんめん、～
+Danh từ + である + 反面はんめん、～</t>
+  </si>
+  <si>
+    <t>①　Là cách nói diễn tả ý nghĩa “trong cùng một sự vật/sự việc tồn tại hai mặt có tính chất, có khuynh hướng trái ngược nhau”. Nói cách khác, 反面はんめん diễn tả hai mặt trái ngược nhau của một sự việc
+②　Thông thường, vế phía trước 反面はんめん là mặt tốt của sự việc, vế phía sau là mặt không tốt.</t>
+  </si>
+  <si>
+    <t>①　この 薬くすりはよく 効きく 反面はんめん、 副作用ふくさようも 強つよい。
+→　Loại thuốc này rất công hiệu, nhưng ngược lại tác dụng phụ cũng rất mạnh.
+②　フェースブックは 便利べんりな 反面はんめん、トラブルも 多おおい。
+→　Facebook thì rất tiện lợi, nhưng đồng thời cũng nhiều phức tạp.
+③　この 部屋へやは 日当ひあたりがいい 反面はんめん、 夏なつはかなり 暑あつい。
+→　Phòng này đón ánh sáng tốt, nhưng mặt khác, mùa hè thì nó lại rất nóng.</t>
+  </si>
+  <si>
+    <t>～ からといって</t>
+  </si>
+  <si>
+    <t>Cho dù… thì cũng không hẳn</t>
+  </si>
+  <si>
+    <t>Thể thường + からといって／からって</t>
+  </si>
+  <si>
+    <t>①　Diễn tả ý nghĩa “chỉ với lý do đó thì (cũng không hẳn là)”. Theo sau là một cách nói phủ định diễn đạt ý, không hẳn là như thế, không phải lúc nào cũng vì X nên Y. 
+②　Đằng sau thường là câu mang ý phủ định như 「わけではない」「とはいえない」「とは限らない」「というわけではない」「ないほうがいい」
+③『～からって』là cách nói thân mật, suồng sã của『～からといって』</t>
+  </si>
+  <si>
+    <t>①　日本人にほんじんだからといって、だれもが日本語にほんごを教おしえられるわけではない。
+→　Cho dù người Nhật nhưng không phải ai cũng dạy được tiếng Nhật.
+②　人ひとよりたくさん練習れんしゅうしたからといって、勝かてるとは限かぎらない。
+→　Tuy là luyện tập nhiều hơn người khác nhưng chưa chắc đã thắng.
+③　やせているからといって、体からだが弱よわいとは限かぎらない。
+→　Không phải cứ gầy là thể lực yếu.
+④　手紙てがみがしばらく来こないからといって、病気びょうきだとは限かぎらないよ。
+→　Cho dù đã lâu thư không tới, cũng không hẳn là cậu ấy bị bệnh.</t>
   </si>
 </sst>
 </file>
@@ -4501,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA07A6C6-D441-4E89-A43E-07D77E90819F}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7540,6 +8017,346 @@
         <v>875</v>
       </c>
     </row>
+    <row r="181" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>877</v>
+      </c>
+      <c r="B181" t="s">
+        <v>878</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>882</v>
+      </c>
+      <c r="B182" t="s">
+        <v>883</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>887</v>
+      </c>
+      <c r="B183" t="s">
+        <v>888</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>892</v>
+      </c>
+      <c r="B184" t="s">
+        <v>893</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>897</v>
+      </c>
+      <c r="B185" t="s">
+        <v>898</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>897</v>
+      </c>
+      <c r="B186" t="s">
+        <v>902</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>905</v>
+      </c>
+      <c r="B187" t="s">
+        <v>907</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>910</v>
+      </c>
+      <c r="B188" t="s">
+        <v>911</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>915</v>
+      </c>
+      <c r="B189" t="s">
+        <v>916</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>920</v>
+      </c>
+      <c r="B190" t="s">
+        <v>921</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>925</v>
+      </c>
+      <c r="B191" t="s">
+        <v>926</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>930</v>
+      </c>
+      <c r="B192" t="s">
+        <v>931</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>935</v>
+      </c>
+      <c r="B193" t="s">
+        <v>937</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>940</v>
+      </c>
+      <c r="B194" t="s">
+        <v>941</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>945</v>
+      </c>
+      <c r="B195" t="s">
+        <v>946</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>950</v>
+      </c>
+      <c r="B196" t="s">
+        <v>951</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>955</v>
+      </c>
+      <c r="B197" t="s">
+        <v>956</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>960</v>
+      </c>
+      <c r="B198" t="s">
+        <v>961</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>965</v>
+      </c>
+      <c r="B199" t="s">
+        <v>966</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>970</v>
+      </c>
+      <c r="B200" t="s">
+        <v>971</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N3FULLOPTIONS.xlsx
+++ b/N3FULLOPTIONS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Downloads\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E894B-2216-4071-9093-3C57BA0111CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE1858-84A3-4715-8572-006BCDB74B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" xr2:uid="{837F86DD-D087-4740-86D8-6099F227768E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" activeTab="1" xr2:uid="{837F86DD-D087-4740-86D8-6099F227768E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1128">
   <si>
     <t>～ てしょうがない</t>
   </si>
@@ -4593,6 +4594,755 @@
 →　Không phải cứ gầy là thể lực yếu.
 ④　手紙てがみがしばらく来こないからといって、病気びょうきだとは限かぎらないよ。
 →　Cho dù đã lâu thư không tới, cũng không hẳn là cậu ấy bị bệnh.</t>
+  </si>
+  <si>
+    <t>～ れる／られる</t>
+  </si>
+  <si>
+    <t>Chợt thấy… / Bỗng thấy…/ Cảm thấy…</t>
+  </si>
+  <si>
+    <t>[Câu văn] + Động từ thể bị động</t>
+  </si>
+  <si>
+    <t>①　Động từ thể bị động, ngoài được sử dụng trong Câu bị động, Tôn kính ngữ và Thể khả năng ra thì còn được sử dụng khi muốn diễn tả ý “cảm xúc/suy nghĩ tự nhiên nảy ra như thế (mặc dù có thể bản thân không có chủ ý)”.
+②　Cách nói này muốn nhấn mạnh vào trạng thái/sự việc được cảm thấy hơn là chủ thể có cảm nhận đó.
+③　Thường chỉ đi với một số động từ như: 思おもう、思おもい出だす、感かんじる、偲しのぶ、案あんじる、泣なく、笑わらう、微笑ほほえむ、待まつ</t>
+  </si>
+  <si>
+    <t>①　この歌うたを聴きくと、子供こどものころのことが思おもい出だされる。
+→　Khi nghe bài hát này, tôi chợt nhớ về những chuyện thời thơ ấu.
+②　写真しゃしんを見みると、家族かぞくが思おもい出だされる。
+→　Khi nhìn bức hình này, tôi bỗng nhớ về gia đình.
+③　国くにから送おくられてきた荷物にもつを見みると、母ははのことが思おもわれる。
+→　Khi nhìn những hành lý được gửi từ đất nước sang, tôi bỗng nhớ về mẹ tôi.
+④　田舎いなかで一人暮ひとりぐらしをしている祖母そぼのことが案あんじられる。
+→　Tôi cảm thấy lo cho người của mình đang sống một mình ở quê.</t>
+  </si>
+  <si>
+    <t>～ もしないで</t>
+  </si>
+  <si>
+    <t>Hoàn toàn không …</t>
+  </si>
+  <si>
+    <t>Động từ nhóm 1 &amp; 2: V bỏ ます + もしないで
+Động từ nhóm 3: V  bỏ します + もしないで</t>
+  </si>
+  <si>
+    <t>①　Mẫu câu này mang ý nghĩa là “hoàn toàn không …” (全まったく～ない), thường biểu hiện thái độ bất mãn của người nói.</t>
+  </si>
+  <si>
+    <t>①　食事しょくじもしないで ゲーム ばかりしていると、病気びょうきになるよ。
+→　Chẳng ăn uống gì toàn chơi game như thế thì thế nào cũng ốm đấy.
+②　A:失敗しっぱいしたなあ。この シャツ、ちょっと派手はですぎた。
+－B: よく見みもしないで買かうからよ。
+→　A: Không được rồi. Cái áo này sặc sỡ quá.
+ー B: Toàn không thèm nhìn mà cứ mua nên bị thế đấy.
+③　できるかどうか、努力どりょくもしないで、最初さいしょからあきらめるんですか。
+→　Có làm được hay không, chưa nỗ lực gì cả mà đã từ bỏ luôn à?</t>
+  </si>
+  <si>
+    <t>～もせずに</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mà không – Mà chẳng</t>
+  </si>
+  <si>
+    <t>Động từ nhóm 1 &amp; 2: V bỏ ます + もせずに
+Động từ nhóm 3: V  bỏ します + もせずに</t>
+  </si>
+  <si>
+    <t>①　Là hình thức nhấn mạnh của 「～ずに」(biểu thị ý nghĩa, trạng thái không…), theo sau là một câu có động từ làm vị ngữ.
+②　Mang tính văn viết, trong văn nói thì sử dụng 「～もしないで」</t>
+  </si>
+  <si>
+    <t>①　彼かれは挨拶あいさつもせずに帰かえってしまった。
+→　Anh ta về mà không nói lời tạm biệt tới chúng tôi.
+②　息子むすこは、仕事しごともせず賭かけごとに夢中むちゅうになっている。まったく、父ちちも父ちちなら子こも子こだ。(*)
+→　Con trai tôi cứ cắm đầu vào cá cược mà chẳng làm việc gì. Thật đúng là cha nào con nấy.
+(*) 父ちちも父ちちなら子こも子こだ。Thành ngữ: “Cha nào con nấy”
+③　何なにもせずに収入しゅうにゅうは発生はっせいするのか？
+→　Không làm gì nhưng vẫn có thu nhập được chứ?
+④　 幼おさない頃ころに父ちちが亡なくなり、母ははは再婚さいこんもせずに俺おれを育そだててくれた。
+→　Cha tôi chết khi tôi còn bé, mẹ tôi đã nuôi tôi lớn khôn mà không đi thêm bước nữa.</t>
+  </si>
+  <si>
+    <t>～ はずがない／はずはない</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Làm gì có chuyện – Chắc chắn là không có chuyện – Làm sao mà… – Lẽ nào</t>
+  </si>
+  <si>
+    <t>V (Thể thường) + はずがない／はずはない
+Tính từ い + はずがない／はずはない
+Tính từ -na + な + はずがない／はずはない
+Ｎ + の・である + はずがない／はずはない</t>
+  </si>
+  <si>
+    <t>①　 Biểu thị cách nói phán đoán mang tính chủ quan của người nói cho rằng không thể nào như thế, không có khả năng như thế trước một sự việc nào đó.
+②　Là cách nói có ý nghĩa tương tự với 『わけがない』. Hầu như không có sự khác nhau về ý nghĩa và cách sử dụng.</t>
+  </si>
+  <si>
+    <t>①　何なにかの間違まちがいでしょう。彼が独身どくしんのはずがありません。ときどき奥おくさんの話はなしをしますよ。
+→　Chắc có gì nhầm lẫn ở đây. Làm gì có chuyện anh ấy độc thân. Thỉnh thoảng anh ta có kể về vợ anh ấy mà.
+② A「田中たなかさん、遅おそいね。どうしたんだろう。」
+→　“Tanaka lâu quá nhỉ. Anh ta làm gì không biết.”
+     B「田中たなかさんは今日きょうは来こられるはずがないよ。神戸こうべに出張しゅっちょうしているんだから。」
+→　“Làm gì có chuyện Tanaka hôm nay đến đây được. Vì anh ta đang đi công tác ở Kobe mà.”
+③ A「林はやしさん暇ひまかな。テニスに誘さそってみようか。」
+→　“Hayashi có rảnh không ta. Mình rủ anh ta cùng chơi Tennis đi.”
+ B「あの人は今就職活動中いましゅうしょくかつどうちゅうだから、暇ひまなはずはないよ。」
+→　“Anh ta hiện giờ đang tìm việc mà. Làm gì có chuyện rảnh được chứ.”</t>
+  </si>
+  <si>
+    <t>～ 以前／以前に</t>
+  </si>
+  <si>
+    <t>Trước đây/ Trước kia/ Trước (thời điểm)/ Trước khi nói tới…</t>
+  </si>
+  <si>
+    <t>①　Trước đây, trước kia ［以前いぜん～］
+②　Trước (thời điểm)… ［N以前いぜん］(Thời điểm trước N)
+③　Trước khi nói tới… ［N以前いぜん］
+④　Trước khi (hành động) ［Vる以前いぜん］</t>
+  </si>
+  <si>
+    <t>①　以前いぜん 一度いちどこのホテルに泊とまったことがある。
+→　Trước đây tôi có trọ ở khách sạn này một lần.
+②　その地方ちほうでは、先週せんしゅうの大地震以前おおじしんいぜんにも何度なんども小ちいさな地震じしんが起こっていた。
+→　Ở vùng này, trước trận động đất lớn hồi tuần trước, đã xảy ra nhiều trận động đất nhỏ.
+③　受験者じゅけんしゃの動機どうきや目的もくてきは面接以前めんせついぜんの段階だんかいでの調査項目ちょうさこうもくだ。面接めんせつではもっと他たのことを質問しつもんするべきだろう。
+→　Động cơ và mục đích của thí sinh là phần cần điều tra trước giai đoạn phỏng vấn. Còn trong lúc phỏng vấn, có lẽ cần phải hỏi về những vấn đề khác hơn.
+ ④　新あたらしい企画きかくを始はじめる以前いぜんに、今いままでのものをもう一度見直いちどみなおしてみる必要ひつようもあるのではありませんか。
+→　Trước khi khởi đầu một kế hoạch mới, có lẽ cũng cần thử xem lại một lần nữa những kế hoạch trước đây.</t>
+  </si>
+  <si>
+    <t>以前いぜん～ 
+N + 以前
+N + 以前
+Vる + 以前</t>
+  </si>
+  <si>
+    <t>～ をこめて</t>
+  </si>
+  <si>
+    <t>Với tất cả / Dồn cả / Chứa chan</t>
+  </si>
+  <si>
+    <t>Danh từ + を込こめて</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng để diễn tả ý “Gửi gắm, gói ghém dồn hết tình yêu thương, tình cảm, nỗi nhớ, thù hận v.v. vào một việc gì đó”
+②　Danh từ phía trước thường là danh từ chỉ cảm xúc, tâm trạng như 愛あい(tình yêu)、心こころ(tấm lòng)、願ねがい(nguyện vọng, mong muốn), 恨うらみ (hận) v.v
+③　Cũng có hình thức bổ nghĩa cho danh từ với hình thức là ｢NをこめたN｣. Nhưng dạng thường gặp là ｢NのこもったN｣. Ví dụ: 愛をこめる → 心がこもる → 心のこもった手紙</t>
+  </si>
+  <si>
+    <t>①　これは、私わたしが心こころを こめて育そだてた野菜やさいです。
+→　Đây là rau mà tôi đã trồng với tất cả tấm lòng/ tình yêu của mình.
+②　平和へいわへの願ねがいを こめて、この歌うたを作つくりました。
+→　Tôi đã viết bài hát này với tất cả ước nguyện về hòa bình gửi gắm trong đó.
+③　愛あいを こめて、セーター を編あみました。
+→　Cô ấy đã dồn hết tình yêu của mình để đan chiếc áo len.
+④　彼女かのじょは心こころを こめて歌うたったので、聴衆ちょうしゅうは深ふかい感動かんどうを うけた。
+→　Cô ấy đã hát với tất cả tấm lòng nên khán giả đã xúc động sâu sắc.</t>
+  </si>
+  <si>
+    <t>～ と見えて／と見える</t>
+  </si>
+  <si>
+    <t>Dường như…./Trông có vẻ / Có vẻ như… / (Có vẻ như)…thì phải</t>
+  </si>
+  <si>
+    <t>Động từ thể thường + と見みえて／と見みえる
+Danh từ + だ + と見みえて／と見みえる
+Tính từ đuôi な + だ + と見みえて／と見みえる
+Tính từ đuôi い + と見みえて／と見みえる</t>
+  </si>
+  <si>
+    <t>①　Cấu trúc「～とみえて、～。」：Dường như…./Trông có vẻ / Có vẻ như…
+②　Cấu trúc「～とみえる。」：(Có vẻ như)…thì phải.</t>
+  </si>
+  <si>
+    <t>①　最近忙さいきんいそがしいと見みえて、いつ電話でんわしても留守るすだ。
+→　Dường như gần đây anh ấy bận, lúc nào gọi điện cũng thấy vắng nhà.
+②　合格発表ごうかくはっぴょうを見みに行いった妹いもうとは、帰かえってくるなり部屋へやに閉とじこもってしまった。どうも不合格ふごうかくだったとみえる。
+→　Đứa em gái tôi sau khi xem điểm thi về là rút ngay vào phòng, giam mình lại. Nó đã thi rớt thì phải.
+～ように／そうに + 見みえて：Trông có vẻ… thực tế lại khác
+③　あの会社かいしゃは営業えいぎょう成績せいせきが良よさそうに見みえて、実じつは銀行ぎんこうから多額たがくの融資ゆうしを受うけているらしい。
+→　Trông có vẻ công ty đó làm ăn tốt nhưng nghe nói đang vay ngân hàng nhiều lắm.</t>
+  </si>
+  <si>
+    <t>～ をきっかけに</t>
+  </si>
+  <si>
+    <t>Nhờ ~ mà…, từ ~ mà…, Nhân dịp… , nhân cơ hội…</t>
+  </si>
+  <si>
+    <t>[Danh từ] + をきっかけに、…
+[Danh từ] + をきっかけにして、…
+[Danh từ] + をきっかけとして、…</t>
+  </si>
+  <si>
+    <t>⑩　大学入学だいがくにゅうがくを きっかけに、一人暮ひとりぐらしを始はじめた。
+→　Nhờ vào đại học mà tôi bắt đầu sống một mình.
+②　留学りゅうがくを きっかけに、自国じこくの文化ぶんかについて考かんがえるようになった。
+→　Nhờ đi du học mà tôi suy nghĩ về văn hóa nước mình.
+③　大統領だいとうりょうの来日らいにちを きっかけにして、日本人にほんじんの米国べいこくに対たいする関心かんしんが深ふかまった。
+→　Nhờ việc tổng thống đến thăm nước Nhật mà sự quan tâm của người Nhật đối với nước Mĩ đã trở nên sâu sắc hơn.
+④　ちょっとした事件じけんを きっかけとして、やがて死者ししゃが出でる暴動ぼうどうへと発展はってんした。
+→　Từ một sự kiện nhỏ mà nó nhanh chóng phát triển thành một cuộc bạo động gây chết người.</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng để diễn tả ý “một việc gì đó xảy ra, hoặc thay đổi bắt đầu từ một sự việc tình cờ, ngẫu nhiên nào đó”.
+②　Nói cách khác, N là nguồn gốc, động cơ, cơ hội để làm V phía sau</t>
+  </si>
+  <si>
+    <t>～ ばかりか</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không chỉ…mà còn…/Không những…mà còn…/Không chỉ…mà đến cả</t>
+  </si>
+  <si>
+    <t>Thể thường + ばかりか
+Tính từ-na  な/ である +  ばかりか
+Danh từ (である) + ばかりか</t>
+  </si>
+  <si>
+    <t>①　豆腐とうふはたんばく質しつを たくさん含ふくむばかりか、ビタミン なども豊富ほうふなんです。
+→　Đậu phụ không chỉ nhiều protein mà còn giàu vitamin nữa.
+②　彼かれは最近さいきん、遅刻ちこくが多おおいばかりか、ミス も目立めだつ。
+→　Gần đây cậu ấy không chỉ đi muộn nhiều mà còn mắc lỗi đáng kể nữa.
+③　家いえを出でるのが遅おくれたばかりか、渋滞じゅうたいもあって、空港くうこうに着ついたのは 10時半じはんだった。
+→　Không chỉ rời nhà muộn, mà còn bị tắc đường nên lúc đến sân bay đã là 10 giờ 30.
+④　去年きょねん出でたこのお菓子かしは、日本国内にほんこくないばかりか、海外かいがいでも ヒット商品しょうひんになった。
+→　Loại bánh kẹo mới ra năm ngoái này, không chỉ được ưa chuộng trong nội địa Nhật mà còn trở thành sản phẩm hit ở nước ngoài.</t>
+  </si>
+  <si>
+    <t>～ 際に</t>
+  </si>
+  <si>
+    <t>Khi / Lúc / Trong trường hợp / Nhân dịp</t>
+  </si>
+  <si>
+    <t>Động từ thể thường + 際さいに（は）
+Danh từ + の + 際さい に（は）</t>
+  </si>
+  <si>
+    <t>①　“Khi …”, có nghĩa giống với とき nhưng mang sắc thái cứng hơn, được sử dụng trong những trường hợp trang trọng hơn như sự kiện, thời điểm đặc biệt.
+②　Phía sau thường đi với dạng ｢～してください・必要ひつようです・お願ねがいします｣. Hầu như ít sử dụng với thể phủ định hoặc tính từ ở phía sau</t>
+  </si>
+  <si>
+    <t>①　お降おりの際さいは、お忘わすれ物もののないよう、お気きをつけてください。
+→　Khi xuống xe, xin quý khách lưu ý đừng để quên đồ đạc.
+②　お降おりの際さいはバスが完全かんぜんに止とまってから席せきをお立だちください。
+→　Khi xuống xe thì xin hãy rời khỏi ghế sau khi xe buýt đã dừng lại hẳn.
+③　カードを紛失ふんしつした際さいはサービスセンターにご連絡れんらくください。
+→　Khi làm mất thẻ xin vui lòng liên lạc đến Trung tâm Dịch vụ.</t>
+  </si>
+  <si>
+    <t>～ 上（に）</t>
+  </si>
+  <si>
+    <t>Hơn nữa, bên cạnh đó, thêm vào đó, Đã…lại còn…, Không chỉ…mà còn…</t>
+  </si>
+  <si>
+    <t>Thể thường  + 上うえ（に）
+Tính từ -na + な/ である + 上うえ（に）
+Tính từ i + 上うえ（に）
+Danh từ + の/ である + 上うえ（に）</t>
+  </si>
+  <si>
+    <t>①　Là cách nói diễn tả một trạng thái hay sự việc nào đó không chỉ có vậy mà còn thế nữa, thể hiện tình trạng, tính chất theo chiều hướng đồng thuận (tích cực và tích cực, hoặc tiêu cực và tiêu cực)
+②　Ngoài ra còn được sử dụng để miêu tả trạng thái hay sự việc xảy ra tiếp theo sau một trạng thái, sự việc nào đó</t>
+  </si>
+  <si>
+    <t>①　この町まちは、地下鉄ちかてつが通とおったうえに、デパート もできて、便利べんりになった。
+→　Thị trấn này có tàu điện ngầm chạy qua, hơn nữa các trung tâm thương mại cũng được xây dựng nên đã tiện lợi hơn nhiều.
+②　彼女かのじょは誰だれにでも親切しんせつなうえ、頭あたまもいい。
+→　Cô ấy không chỉ tốt với tất cả mọi người mà còn thông minh nữa.
+③　今いま庭にわに咲さいている花はなは、きれいなうえに香かおりもすごくいい。
+→　Hoa anh đào đang nở trong vườn vừa đẹp mà hương thơm cũng rất tuyệt.
+④　彼かれは 頭あたまがいいうえに、ハンサムだ。
+→　Anh ta đã thông minh, lại còn đẹp trai nữa.</t>
+  </si>
+  <si>
+    <t>〜 ながら／ながらも</t>
+  </si>
+  <si>
+    <t>Tuy…nhưng/ Dù là…nhưng/ Mặc dù…nhưng</t>
+  </si>
+  <si>
+    <t>Động từ ます + ながら（も）
+Danh từ（であり）＋ ながら（も）
+Tính từ đuôi い ＋ ながら（も）
+Tính từ đuôi な （であり）＋ ながら（も）</t>
+  </si>
+  <si>
+    <t>①　Là dạng liên kết nghịch, diễn tả điều trái với dự đoán, được suy ra từ một trạng thái nào đó. “Tuy là vậy nhưng thực tế thì…”
+②「ながらも」là dạng nhấn mạnh và mang tính cứng nhắc hơn so với「ながら」
+③　Những cụm quán ngữ thường được sử dụng: 『残念ざんねんながら』(Thật đáng tiếc);『しかしながら』(Tuy nhiên);『知しりながら』(Mặc dù biết); 『知しっていながら』(Mặc dù biết);『狭せまいながらも』(Tuy chật chội); 『と思おもいながらも』(Tuy nghĩ là/Tuy thấy là…)</t>
+  </si>
+  <si>
+    <t>①　(挨拶あいさつの最後さいご) これで、簡単かんたんながら、お祝いわいの挨拶あいさつとさせていただきます。
+→　(Cuối lời chào hỏi) Dù đơn giản nhưng cho tôi gửi lời chúc mừng ạ.
+②　彼かれは金持かねもちでありながらも、とても地味じみな生活せいかつをしている。
+→　Ông ấy tuy rất giàu có nhưng sống rất giản dị.
+③　うちの子こはまだ ２歳としですが、たまに私わたしたちはけんか を すると、子供こどもながら、心配しんぱいになるみたいです。
+→　Con tôi mới 2 tuổi, nhưng khi chúng tôi cãi nhau thì nó dù là con nít nhưng vẫn tỏ ra lo lắng.
+④　田中たなかさんは学生がくせいの身みでありながら、地元じもとの食品会社しょくひんがいしゃを経営けいえいしている。
+→　Anh Tanaka tuy vẫn đang là sinh viên nhưng anh đang kinh doanh một công ty thực phẩm địa phương.</t>
+  </si>
+  <si>
+    <t>～ ことに／ことには</t>
+  </si>
+  <si>
+    <t>Thật là… – Thật…làm sao</t>
+  </si>
+  <si>
+    <t>Vる／Vた + ことに
+Tính từ (い) + ことに
+Tính từ (な) + な + ことに</t>
+  </si>
+  <si>
+    <t>①　Đi sau một tính từ hoặc động từ nhấn mạnh tình cảm, cảm xúc nhằm diễn đạt trước cảm nghĩ của người nói về một sự việc định trình bày sau đó. Dùng trong văn viết.
+②　Đôi khi cũng được đi với dạng 「～ことには」</t>
+  </si>
+  <si>
+    <t>①　残念ざんねんなことに、私わたしが訪たずねたときには、その人ひとはもう引いんっ越こしたあとだった。
+→　Thật là đáng tiếc, khi tôi tìm đến nơi thì người ấy đã dọn nhà đi nơi khác rồi.
+②　幸さいわいなことに、やっと自分じぶんの好すきな人ひとと結婚けっこんできました。
+→　May mắn thay, cuối cùng tôi đã có thể kết hôn với người tôi yêu.
+③　面白おもしろいことに、私わたしがいま教おしえている学生がくせいは、私わたしが昔むかしお世話せわになった先生せんせいの子こどもさんだ。
+→　Thật thú vị làm sao, người học trò mà tôi đang dạy bây giờ chính là con của người thầy ngày xưa đã dìu dắt tôi.</t>
+  </si>
+  <si>
+    <t>～ おそれがある</t>
+  </si>
+  <si>
+    <t>E là, e rằng, sợ rằng, có khả năng là (điều gì đó không tốt sẽ xảy ra)</t>
+  </si>
+  <si>
+    <t>Động từ thể từ điển + 恐おそれがある
+Danh từ + の + 恐おそれがある</t>
+  </si>
+  <si>
+    <t>①　Dùng để diễn tả ý “có khả năng xảy ra một sự việc nào đó không mong đợi”. Sử dụng với ý nghĩa có thể có sự việc không tốt xảy ra 
+②　Cách nói này mang tính văn viết, được sử dụng nhiều trong các bản tin, thời sự, ký sự, xã luận, hoặc khi khi trình bày, thuyết minh .v.v.
+③　Các cách nói tương tự: 危険きけんがある（có nguy cơ）、不安ふあんがある（lo rằng）​​​​​​​</t>
+  </si>
+  <si>
+    <t>①　大おおきい地震じしんが来きたら、この建物たてものは倒たおれるおそれがある。
+→　Nếu mà có động đất lớn thì sợ rằng tòa nhà này sẽ đổ mất.
+②　明日あしたは台風たいふうのおそれがあるので、注意ちゅういしてください。
+→　Ngày mai có khả năng sẽ có bão nên xin (mọi người) hãy chú ý.
+③　こんな赤字あかじが続つづくと、この会社かいしゃは倒産とうさんのおそれがある。
+→　Nếu cứ tiếp tục thâm hụt như thế này thì e rằng công ty này sẽ phá sản.
+④　この テレビドラマ は子供こどもに悪わるい影響えいきょうを与あたえるおそれがある。
+→　Sợ rằng bộ phim truyền hình này sẽ có ảnh hưởng xấu đến trẻ em.</t>
+  </si>
+  <si>
+    <t>～ てみせる</t>
+  </si>
+  <si>
+    <t>(làm) cho xem / cho mà xem / cho mà thấy rằng</t>
+  </si>
+  <si>
+    <t>Động từ thể て + みせる</t>
+  </si>
+  <si>
+    <t>①　Diễn tả việc làm hành động V cho ai đó xem để trình bày hoặc thị phạm cho họ.
+②　Ngoài ra còn diễn tả hành động mang tính quyết tâm muốn chứng tỏ bản thân, “cố gắng hết sức để làm...” (để được ai đó công nhận mình).. 
+③　みせる phải được viết bằng Hiragana, không viết bằng Kanji.</t>
+  </si>
+  <si>
+    <t>①　歌うたがお上手じょうずだそうですね。一度歌いちどうたってみせてください。
+→　Nghe nói chị hát hay lắm. Xin chị hãy hát cho mọi người nghe thử một lần.
+②　ファックスの使つかい方かたがまだ分わからないので、一度いちどやってみせてくれませんか。
+→　Tôi chưa hiểu cách sử dụng máy fax, xin anh vui lòng làm cho tôi xem thử một lần.
+③　将来しょうらい必かならず有名ゆうめいな ピアニスト になってみせる。
+→　Trong tương lai tôi nhất định sẽ trở thành nghệ sĩ piano nổi tiếng cho xem.
+⑤　今度こんどこそ、必かならず優勝ゆうしょうしてみせる。
+→　Chính là lần này, nhất định (chúng tôi) sẽ vô địch cho mọi người xem.</t>
+  </si>
+  <si>
+    <t>～ ところです</t>
+  </si>
+  <si>
+    <t>Sắp, đang hay vừa diễn ra việc gì đó</t>
+  </si>
+  <si>
+    <t>[Động từ thể từ điển] + ところだ/ ところです
+[Động từ thể ている] + ところだ/ ところです
+[Động từ thể た] + ところだ/ ところです</t>
+  </si>
+  <si>
+    <t>①「ところ」ở đây được hiểu là “thời điểm”. Mẫu câu này dùng để nhấn mạnh hành động đi kèm có vị trí như thế nào với thời điểm hiện tại (sắp diễn ra, đang diễn ra hay vừa diễn ra).</t>
+  </si>
+  <si>
+    <t>①　昼ひるごはんもう食たべましたか。ー　いいえ、これから食たべるところです。
+→　Cậu đã ăn trưa chưa? ー　Chưa, bây giờ tớ chuẩn bị ăn đây.
+②　何なにしているの？　－君きみのこと を考かんがえているところだよ。
+→　Anh đang làm gì đấy? ー Anh đang nghĩ về em đấy.
+③　たった今いま空港くうこうに着ついたところだ。
+→　Tôi vừa mới đến sân bay.
+④　別べつの人ひとに メッセージ を送おくってしまうところだったけど、送おくる前まえに気きづいた。よかった。　
+→　Suýt nữa thì gửi tin nhắn nhầm cho người khác nhưng đã kịp nhận ra trước khi gửi, tốt quá.</t>
+  </si>
+  <si>
+    <t>～ はずです</t>
+  </si>
+  <si>
+    <t>Chắc hẳn là, nhất định là</t>
+  </si>
+  <si>
+    <t>・[Động từ thể thường (普通形)] + はずです/はずだ。
+・[Tính từ -i/Tính từ -na な] + はずです/はずだ。
+・[Danh từ + の] +  はずです/はずだ。</t>
+  </si>
+  <si>
+    <t>①　Diễn đạt khả năng việc gì đó xảy ra và khả năng này là cao, người nói có sự chắc chắn về việc này. Điều chắc chắn này thường dựa vào một lý do nào đó để suy luận ra, giống như kiểu “Đã là thế này thì nhất định/chắc chắn phải thế này.
+②　Ngoài ra còn được sử dụng nhiều trong những trường hợp phán đoán, suy đoán của người nói, sự suy đoán này cũng được dựa trên một lý do khách quan hoặc dựa trên một kinh nghiệm thực tế nào đó.</t>
+  </si>
+  <si>
+    <t>①　今いま10時ときですから、郵便局ゆうびんきょくは開あ( あ ) いているはずです。
+→　Bây giờ là 10 giờ nên chắc chắn là bưu điện đang mở cửa.
+②　山田やまださんは英語えいごの教師きょうしですから、英語えいごが話はなせるはずだ。
+→　Anh Yamada là giáo viên tiếng Anh nên chắc hẳn là nói được tiếng Anh.
+③　彼女かのじょは美術びじゅつを勉強べんきょうしていますから、絵えが上手じょうずなはずです。
+→　Cô ấy học về mỹ thuật nên chắc chắn là vẽ giỏi rồi.
+④　彼かれは風邪かぜを引ひいたと言いいましたから、今日きょうは休やすみのはずです。
+→　Anh ấy đã nói là bị cảm nên hôm nay chắc là sẽ nghỉ ở nhà.</t>
+  </si>
+  <si>
+    <t>Cách dùng Thể sai khiến trong Tiếng nhật</t>
+  </si>
+  <si>
+    <t>①　Dùng để diễn tả ý cho phép hoặc yêu cầu, mệnh lệnh của người nói đối với người nghe.
+②　Do đây là thể sai khiến nên chỉ sử dụng từ người trên đối với người dưới, không sử dụng đối với người có quan hệ ngang bằng hoặc người trên mình (ngoại lệ có thể ngoại trừ một số động từ như 心配しんぱいする (lo lắng)、困こまる (khổ sở)、びっくりする(giật mình)、v.v.) ..
+③　Thay vào đó ta sẽ sử dụng những cách nói như Vてください、Vてもらう、Vていただく v.v.</t>
+  </si>
+  <si>
+    <t>Bắt – Cho phép – Khiến….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 A は B に+ [Danh từ] を +  [Thể sai khiến]: A bắt B làm việc gì (trường hợp có 2 tân ngữ)
+②　A は B に + [Danh từ] を +[Thể sai khiến]: A cho phép B làm gì (trường hợp có 2 tân ngữ)
+③　A は B を + [Thể sai khiến]: A bắt/cho phép B làm việc gì (trường hợp có 1 tân ngữ)
+④　Thể sai khiến dạng て + ください: Hãy cho phép tôi làm …
+⑤　A は B を + [Thể sai khiến] (động từ bộc lộ cảm xúc): A làm cho B …(bộc lộ cảm xúc)
+⑥　Thể sai khiến bị động  (使役受身しえきうけみ) </t>
+  </si>
+  <si>
+    <t>先生せんせいはいつも私わたしたちに宿題しゅくだいを たくさんさせます。
+Cô giáo lúc nào cũng bắt chúng tôi làm nhiều bài tập
+父ちちは私わたしに携帯けいたいを 使つかわせません。
+Bố không cho phép tôi dùng di động.
+コーチ は山田やまださん を走はしらせました。
+Huấn luyện viên bắt Yamada chạy bộ. (走はしる: はしる : chạy)
+すみません、トイレ に行いかせてください
+Cho phép tôi vào nhà vệ sinh.
+私わたしは病気びょうきになって、両親りょうしんを 心配しんぱいさせました。
+Tôi bị bệnh, làm cho bố mẹ lo lắng.
+学生がくせいのとき、いつも先輩せんぱいに飲のみ物ものを買かいに行いかされた。
+Lúc còn là học sinh lúc nào cũng bị bắt đi mua nước cho tiền bối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①　Là cách nói Diễn tả ý không chỉ A (mức độ nhẹ) mà còn B (mức độ cao hơn, còn hơn thế nữa)
+②　Ở vế trước của câu nói một điều không xảy ra thường xuyên, ở vế sau là điều khác nữa thêm vào, có cảm giác ngoài dự đoán </t>
+  </si>
+  <si>
+    <t>Phân biệt そう Và げ</t>
+  </si>
+  <si>
+    <t>Trông Có Vẻ…</t>
+  </si>
+  <si>
+    <t>①　木村きむらさんは父ちちに死しなれてから、いつも悲かなしそうな顔かおをしている。
+→　Anh Kimura kể từ sau khi ba mất, mặt lúc nào trông cũng buồn bã.
+②　木村きむらさんは父ちちに死しなれてから、いつも悲かなしげな顔かおをしている。
+→　Anh Kimura kể từ sau khi ba mất, mặt lúc nào trông cũng buồn buồn sao ấy.</t>
+  </si>
+  <si>
+    <t>Trong nhiều trường hợp, cách sử dụng「そう」và「げ」là hầu như không khác nhau nhiều. Nhưng nếu đi sâu, ta có thể thấy một 3 điểm khác nhau rất nhỏ như sau: 
+①　「そう」mang tính văn nói nhiều hơn so với 「げ」
+Mặc dù cả 「そう」và「げ」đều sử dụng được trong văn nói, nhưng 「そう」mang tính văn nói nhiều hơn so với 「げ」.
+②　「そう」Biểu thị trạng thái rõ ràng hơn 「げ」
+Cả 2 đều diễn tả trạng thái “trông có vẻ”, “nhìn có vẻ” nhưng「そう」biểu thị trạng thái đó và mình cảm nhận được trạng thái đó rõ ràng, chắc chắn hơn qua hành động, hành vi, thái độ của người/vật đó. Trong khi đó「げ」cho ta thấy trạng thái chưa rõ ràng lắm, thường mình cảm nhận được trạng thái đó qua cảm nhận trực quan và mình phán đoán như thế thông qua không khí, cảm giác khi đó.</t>
+  </si>
+  <si>
+    <t>Động từ nhóm 1 &amp; 2: V ます + もしないで
+Động từ nhóm 3: V します + もしないで</t>
+  </si>
+  <si>
+    <t>Mà không – Mà chẳng</t>
+  </si>
+  <si>
+    <t>Động từ nhóm 1 &amp; 2: V ます + もせずに
+Động từ nhóm 3: V します + もせずに</t>
+  </si>
+  <si>
+    <t>①　彼かれは挨拶あいさつもせずに帰かえってしまった。
+→　Anh ta về mà không nói lời tạm biệt tới chúng tôi.
+②　息子むすこは、仕事しごともせず賭かけごとに夢中むちゅうになっている。まったく、父ちちも父ちちなら子こも子こだ。(*)
+→　Con trai tôi cứ cắm đầu vào cá cược mà chẳng làm việc gì. Thật đúng là cha nào con nấy.
+(*) 父ちちも父ちちなら子こも子こだ。Thành ngữ: “Cha nào con nấy”
+③　何なにもせずに収入しゅうにゅうは発生はっせいするのか？
+→　Không làm gì nhưng vẫn có thu nhập được chứ?</t>
+  </si>
+  <si>
+    <t>～はというと</t>
+  </si>
+  <si>
+    <t>Riêng…thì (khác) / Còn…thì…(khác)</t>
+  </si>
+  <si>
+    <t>Danh từ + はというと、～</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng so sánh, để nhấn mạnh, nêu lên sự khác biệt của sự việc này / cái này so với những cái khác nêu lên trước đó.</t>
+  </si>
+  <si>
+    <t>①　彼かれは魚料理さかなりょうりが好すきで何なんでも食たべるが、肉料理にくりょうりはというとかなり好すき嫌きらいがある。
+→　Anh ta thích các món cá nên món nào cũng ăn nhưng riêng các món thịt thì hay kén cá chọn canh.
+②　昨日きのうの夜よる、地震じしんがあったそうですね。私わたしはというと、ぐっすり眠ねむっていて、全然気ぜんぜんきがつきませんでしたけど。
+→　Nghe nói tối qua có động đất nhỉ. Riêng tôi do ngủ say nên tôi đã không biết gì.
+③　祖母そぼはケータイやパソコンを良く使つかう。一方いっぽう、母はははというと、ケータイもパソコンも使つかおうとしない。
+→　Bà tôi thì thường xuyên sử dụng điện thoại di động hay máy laptop này nọ. Nhưng còn mẹ tôi thì chẳng có ý định sử dụng điện thoại lẫn máy tính.</t>
+  </si>
+  <si>
+    <t>～ てこそ</t>
+  </si>
+  <si>
+    <t>Chỉ khi…thì mới/ Chỉ sau khi…thì mới/ Do…mới/ Chính nhờ…</t>
+  </si>
+  <si>
+    <t>Vて + こそ、～。</t>
+  </si>
+  <si>
+    <t>①　Là cách nói nhấn mạnh, bằng cách gắn ｢こそ｣ vào sau động tự thể ｢て｣ nhằm diễn tả ý “do làm/nhờ có một việc gì đó nên mới có được kết quả tốt” hoặc muốn diễn đạt rằng “điều kiện gì đó xảy ra, thì mới…(có được kết quả tốt).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①　困こまった時ときに助たすけ合あってこそ、本当ほんとうの友達ともだちです。
+→　Chỉ có giúp đỡ lẫn nhau lúc khó khăn mới là bạn bè thực sự.
+②　自分じぶんの言葉ことばで書かいてこそ、相手あいてに気持きもちが伝つたわる。
+→　Chỉ khi tự viết bằng từ ngữ của mình mới có thể truyền đạt được cảm xúc đến đối phương.
+③　一人ひとりでやってこそ身みにつくのだから、難むずかしくても頑張がんばってやりなさい。
+→　Chính vì phải tự làm thì mới tiếp thu được cho nên dù có khó khăn cũng hãy gắng mà làm.
+ </t>
+  </si>
+  <si>
+    <t>～ のだ</t>
+  </si>
+  <si>
+    <t>Chính vì…/ Là vì…/ Thế là…</t>
+  </si>
+  <si>
+    <t>Thể thông thường + のだ
+Danh từ + な + のだ
+Tính từ -na + な + のだ</t>
+  </si>
+  <si>
+    <t>①　Dùng khi người nói muốn nhấn mạnh, khẳng định lập luận, ý kiến của mình hoặc muốn thể hiện ý đồng tình, đã hiểu ra vấn đề nào đó. Ngoài ra còn để giải thích nguyên nhân hoặc lí do của sự việc đã kể trong câu trước.</t>
+  </si>
+  <si>
+    <t>①　これで自由じゆうになったのだ！だれもがそうと思おもった。
+→　Thế là tự do rồi! Ai cũng nghĩ thế thôi.
+②　毎日まいにち少すこしずつ勉強べんきょうしてきたからこそ、こうして合格ごうかくできたのです。
+→　Chính nhờ học mỗi ngày 1 chút nên mới có thể đỗ.
+③　A: この エアコン、壊こわれてるみたいだね。涼すずしい風かぜが全然ぜんぜん出でない。
+B: なんだ、だから暑あつかったんだ。
+→　A: Cái điều hòa này hình như bị hỏng rồi nhỉ. Chả thấy mát gì cả.
+B: Cái gì, thảo nào nóng vậy.
+( んだ thể rút gọn của のだ , dùng nhiều trong hội thoại)</t>
+  </si>
+  <si>
+    <t>～ない限り</t>
+  </si>
+  <si>
+    <t>Nếu không – Chừng nào mà chưa…Thì…</t>
+  </si>
+  <si>
+    <t>V ない + 限かぎり</t>
+  </si>
+  <si>
+    <t>①　Dùng để diễn tả ý phạm vi điều kiện, rằng “nếu chừng nào mà trạng thái đó chưa diễn ra thì… vế sau cũng không thể thực hiện được”, hoặc “suốt trong lúc sự việc đó chưa xảy ra thì…vế sau cũng không thể thực hiện được” (dịch sát nghĩa là trong giới hạn khi mà A chưa xảy ra thì không thể xảy ra B)
+②　Phía sau thường miêu tả trạng thái có được khi điều kiện đó thành lập, hàm ý rằng nếu điều kiện đó thay đổi thì trạng thái hiện tại có khả năng thay đổi theo
+③　Vế sau thường đi với thể phủ định. Ví dụ như: できない、無理むり、難むずかしい .v.v.</t>
+  </si>
+  <si>
+    <t>①　この家いえから出でない限かぎり、大丈夫だいじょうぶだ。
+→　Nếu không ra khỏi ngôi nhà này thì sẽ không sao.
+②　今いまの会社かいしゃを やめない限かぎり、こういう生活せいかつは変かわらないと思おもったんです。
+→　Nếu mà không nghỉ việc ở công ty hiện tại thì sẽ không thay đổi được tình trạng cuộc sống hiện giờ.
+③　あいつが謝あやまってこない限かぎり、こっちも折おれるつもりはない。
+→　Chừng nào mà gã đó chưa chịu xin lỗi thì đằng này cũng không có ý định nhượng bộ.</t>
+  </si>
+  <si>
+    <t>～には及ばない</t>
+  </si>
+  <si>
+    <t>Không đến mức phải…/ không cần thiết phải …</t>
+  </si>
+  <si>
+    <t>Vる + には及およ ばない/ には及およ びません
+Danh từ + には及およ ばない/ には及およ びません</t>
+  </si>
+  <si>
+    <t>①　Được sử dụng để diễn tả ý “Không cần thiết phải…, không đến mức phải…“.</t>
+  </si>
+  <si>
+    <t>①　スタッフ がいますから、心配しんぱいには及およびません。ご安心あんしんしてください。
+→　Có nhân viên của chúng tôi ở đây nên anh/chị không cần phải lo lắng đâu. Hãy yên tâm.
+②　がっかりには及およびません。まだまだ チャンス はありますから。
+→　Không cần phải thất vọng đâu. Thế nào cũng sẽ có cơ hội nữa mà.
+③　あそこは ホテル から近ちかいから、わざわざ タクシー を呼よぶにはおよばない。
+→　Chỗ đó gần với khách sạn nên không cần thiết phải mất công gọi taxi đâu.</t>
+  </si>
+  <si>
+    <t>～ だけまし</t>
+  </si>
+  <si>
+    <t>Cũng còn may – Vẫn còn hơn – vẫn còn tốt chán – Nhưng được cái – (Không bị…) là quý lắm rồi</t>
+  </si>
+  <si>
+    <t>Động từ thể thường + だけまし（だ）
+Tính từ い + だけまし（だ）
+Danh từ / Tính từ な + （である）+ だけまし（だ）</t>
+  </si>
+  <si>
+    <t>①　Sử dụng khi muốn diễn đạt ý nghĩa “tình trạng sự vật, sự việc như thế tuy không được tốt cho lắm nhưng vẫn còn may, vẫn còn hơn là bị tình trạng xấu hơn”</t>
+  </si>
+  <si>
+    <t>①　今年ことしは景気けいきが非常ひじょうに悪わるく、ボーナスが出でなかった。しかし、给料给りょうがもらえるだけましだ。
+→　Năm nay tình hình kinh tế vô cùng xấu, tiền thưởng cũng không có. Nhưng kể cũng còn may vì vẫn có lương.
+②　日本にほんに入国にゅうこくできただけましじゃないか。僕ぼくなんて入国拒否にゅうこくきょひだよ。
+→　Cậu có thể nhập cảnh được vào Nhật được là quý lắm rồi. Như tôi đây đã bị từ chối rồi.
+③　今年ことしはまだ一回いっかいしか旅行りょこうにいってない」
+　ー「行いけるだけましだよ。私わたしなんか、まだどこにも行いってないよ」
+→　Cả năm nay mới đi du lịch được một lần.
+ー　Đi được là tốt rồi. Tôi á, còn chưa đi được đâu đây này.
+④「なんとか指定席していせきを取とったけど、端はじのほうしかなかった、いい？」
+ー「もちろん。座すわれるだけましだよ」
+→　Cố gắng lấy được ghế có số rồi, nhưng chỉ được ghế cuối thôi có được không?
+ー　Tất nhiên là được. Có chỗ ngồi vẫn còn tốt chán./ Ngồi được là tốt rồi.</t>
+  </si>
+  <si>
+    <t>～ かねる</t>
+  </si>
+  <si>
+    <t>không thể…/ Khó mà…/ Khó có thể…</t>
+  </si>
+  <si>
+    <t>Động từ thể  bỏます + かねる</t>
+  </si>
+  <si>
+    <t>①　Diễn tả ý nghĩa “rằng một sự việc như thế khó lòng hoặc không thể nào xảy ra được, khó mà thực hiện được”
+②　Bao hàm ý “dù có muốn làm, dù gắng sức làm thì cũng không được”.
+③　Đây là cách nói kiểu cách, trang trọng. Thường dùng trong trường hợp từ chối một cách lịch sự  hoặc trong ngữ cảnh giao tiếp lĩnh vực dịch vụ, nhà hàng, khách sạn v.v.
+Chú ý
+①　「かねる」 ở dạng khẳng định nhưng lại mang nghĩa phủ định. Chủ ngữ thường là ngôi thứ nhất (tôi/ chúng tôi)
+②　 Không sử dụng với ý nghĩa “không thể” mang tính khả năng.</t>
+  </si>
+  <si>
+    <t>①　そのようなご依頼いらいは、引ひき受うけしかねます。
+→　Tôi khó mà chấp nhận được yêu cầu như vậy.
+②　それはなんとも申もうし上あげかねます。
+→　Việc đó thì tôi không thể nói được điều gì.
+③　それは私わたしには分わかりかねます。
+→　Việc đó thì làm sao mà tôi biết được.</t>
+  </si>
+  <si>
+    <t>～次第では</t>
+  </si>
+  <si>
+    <t>Tùy thuộc vào thì cũng có khi (cũng có thể)</t>
+  </si>
+  <si>
+    <t>Danh từ + 次第しだいでは</t>
+  </si>
+  <si>
+    <t>①　Diễn tả ý nghĩa “cũng có những trường hợp, cũng có những khi như thế”. Thường đi cùng từ thể hiện sự khác nhau của mức độ, chủng loại…
+②　Đây là một phần trong cách sử dụng của「しだいで」. Là cách nói nêu lên một trong nhiều khả năng có thể xảy ra.
+③　Cách sử dụng tương tự với 「いかんでは」và ít cứng nhắc hơn.</t>
+  </si>
+  <si>
+    <t>①　成績次第せいせきしだいでは、あなたは別べつのコースに入ることになります。
+→　Tùy thuộc kết quả học tập thì cũng có thể bạn sẽ vào học khóa học khác.
+②　道の込こみ方次第かたしだいでは、着つくのが大幅おおはばに遅おくれるかもしれません。
+→　Tùy vào đường đông như thế nào thì cũng có thể sẽ đến khá trễ.
+③　考かんがえ方次第かたしだいでは、苦くるしい経験けいけんも貴重きちょうな思おもい出でになる。
+→　Tùy vào cách suy nghĩ thì những kinh nghiệm đau thương cũng có thể trở thành những kỷ niệm quý báu.</t>
+  </si>
+  <si>
+    <t>～ からすると／からすれば／からして</t>
+  </si>
+  <si>
+    <t>Căn cứ trên…/ Xét từ…/ Nhìn từ góc độ…/ Nhìn vào …</t>
+  </si>
+  <si>
+    <t>Danh từ + からすると／からすれば／からして</t>
+  </si>
+  <si>
+    <t>①　Mẫu câu diễn tả sự phán đoán, nhận xét, đánh giá  dựa trên một góc độ, quan điểm, lập trường hay khía cạnh nào đó.
+②　Hoặc miêu tả cơ sở, căn cứ, đầu mối của sự phán đoán, nhận xét ở phía sau</t>
+  </si>
+  <si>
+    <t>①　あの車くるまは形かたちからすると、10年ねんぐらい前まえのものだと思おもう。
+→　Nhìn vào kiểu dáng cái ô tô kia thì tôi nghĩ đó là loại cách đây 10 năm rồi.
+②　米こめを作つくる農家のうかからすると、涼すずしい夏なつはあまりありがたくないことだ。
+→　Nhìn từ góc độ của những người nông dân trồng lúa thì mùa hè mát mẻ không phải là điều đáng mừng.
+③　伝統的でんとうてきな町並まちなみを保存ほぞんするという点てんからすれば、京都きょうとの家々いえいえの建て替かえにある程度ていどの制限せいげんがあるのは仕方しかたのないことだろう。
+→　Từ góc độ bảo tồn các khu phố truyền thống thì có lẽ việc đặt ra những giới hạn nhất định trong việc xây lại các căn nhà ở Kyoto cũng là điều không thể khác.</t>
+  </si>
+  <si>
+    <t>～ 得る</t>
+  </si>
+  <si>
+    <t>Có thể/ Có khả năng xảy ra…</t>
+  </si>
+  <si>
+    <t>Động từ thể  bỏます + 得る（うる／える）</t>
+  </si>
+  <si>
+    <t>①　Diễn tả ý nghĩa “có thể tiến hành hành vi nào đó, điều đó có khả năng xảy ra”
+②　Động từ 得る có hai cách đọc là える và うる , với cách sử dụng này thì thường đọc là うる 。Nhưng dạng 「ます」chỉ có 「えます」
+③　Thường dùng trong văn viết hay hoàn cảnh trang trọng, nhưng riêng 「ありえる／ありえない」được sử dụng rất nhiều trong hội thoại hàng ngày..
+④　Thường đi kèm chủ yếu với một số động từ nhất định như 「ありうる／ありえる ・起おこりうる／おこりえる ・考かんがえうる ・信しんじうる／信しんじえる ・ なりうる／なりえる 」
+⑤　Dạng phủ định là 得えない (Không có うない)</t>
+  </si>
+  <si>
+    <t>①　こういう事故じこは日本にほんでも起おこりえると思おもいます。
+→　Tai nạn như thế này ở Nhật cũng có thể xảy ra.
+②　A:日本にほんが優勝ゆうしょうする可能性かのうせいはあるんでしょうか。
+－B: ええ、あり得えますよ / いや、それはあり得えません。
+→　A: Liệu Nhật có khả năng vô địch không nhỉ?
+ー B: Có, có thể chứ/ Không, điều đó là không thể nào.
+③　そういうこともあり得える。
+→　Cũng có thể là như thế.</t>
+  </si>
+  <si>
+    <t>～ 得ない</t>
+  </si>
+  <si>
+    <t>Không thể/ Không có khả năng xảy ra…</t>
+  </si>
+  <si>
+    <t>Động từ thể  bỏ ます + 得えない</t>
+  </si>
+  <si>
+    <t>①　Diễn tả ý nghĩa “Không thể tiến hành hành vi nào đó, điều đó không có khả năng xảy ra”
+②　Thường dùng trong văn viết hay hoàn cảnh trang trọng, nhưng riêng 「ありえない」được sử dụng rất nhiều trong hội thoại hàng ngày..</t>
+  </si>
+  <si>
+    <t>①　私わたしは賞しょうを もらうなんて、あり得えないです。
+→　Tôi nhận được giải thưởng là việc không thể xảy ra.
+②　今回こんかいは予測よそくし得えないことが起おきたけど、皆みな、落おち着ついていた。
+→　Lần này tuy xảy ra việc không thể đoán trước nhưng mọi người đều bình tĩnh.
+③　あの二人ふたりが付つき合あってる？それはあり得えないよ。
+→　Hai người đó hẹn hò ư? Không thể nào.
+④　まさか、彼かれが犯人はんにんだったなんて、今いまも信しんじえない事ことです。
+→　Bây giờ tôi vẫn không thể nào tin anh ta là kẻ sát nhân.</t>
   </si>
 </sst>
 </file>
@@ -4978,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA07A6C6-D441-4E89-A43E-07D77E90819F}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7327,19 +8077,19 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="4" t="s">
         <v>680</v>
       </c>
     </row>
@@ -8341,24 +9091,685 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="6" t="s">
         <v>973</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>975</v>
+      </c>
+      <c r="B201" t="s">
+        <v>976</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>980</v>
+      </c>
+      <c r="B202" t="s">
+        <v>981</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>985</v>
+      </c>
+      <c r="B203" t="s">
+        <v>986</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>990</v>
+      </c>
+      <c r="B204" t="s">
+        <v>991</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>995</v>
+      </c>
+      <c r="B205" t="s">
+        <v>996</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6A75C1-8CF1-49B1-9000-182967FC71C5}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>